--- a/diaochabiao_zhang_san.xlsx
+++ b/diaochabiao_zhang_san.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="30">
   <si>
     <t>村民教育调查</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>李屯研究院</t>
+  </si>
+  <si>
+    <t>张四</t>
+  </si>
+  <si>
+    <t>张五</t>
   </si>
   <si>
     <t>婚姻调查表</t>
@@ -107,8 +113,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,6 +126,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -135,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -150,11 +179,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,11 +233,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,88 +263,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -285,25 +291,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,43 +411,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,116 +475,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -495,16 +501,32 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +536,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,15 +587,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -568,26 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,152 +615,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +771,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
@@ -1166,6 +1194,574 @@
       <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>126</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>129</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>130</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>131</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>132</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>134</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>135</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <v>136</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>137</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>138</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>139</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>140</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>141</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4">
+        <v>142</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1189,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1205,16 +1801,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1225,16 +1821,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/diaochabiao_zhang_san.xlsx
+++ b/diaochabiao_zhang_san.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="44">
   <si>
     <t>村民教育调查</t>
   </si>
@@ -50,49 +50,91 @@
     <t>博士</t>
   </si>
   <si>
+    <t>张3</t>
+  </si>
+  <si>
+    <t>张庄小学</t>
+  </si>
+  <si>
+    <t>张庄中学</t>
+  </si>
+  <si>
+    <t>张庄第一中学</t>
+  </si>
+  <si>
+    <t>张庄大学</t>
+  </si>
+  <si>
+    <t>张庄研究院</t>
+  </si>
+  <si>
+    <t>张4</t>
+  </si>
+  <si>
+    <t>张5</t>
+  </si>
+  <si>
+    <t>张6</t>
+  </si>
+  <si>
+    <t>张7</t>
+  </si>
+  <si>
+    <t>张8</t>
+  </si>
+  <si>
+    <t>张9</t>
+  </si>
+  <si>
+    <t>张10</t>
+  </si>
+  <si>
+    <t>张11</t>
+  </si>
+  <si>
+    <t>张12</t>
+  </si>
+  <si>
+    <t>张13</t>
+  </si>
+  <si>
+    <t>张14</t>
+  </si>
+  <si>
+    <t>张15</t>
+  </si>
+  <si>
+    <t>张16</t>
+  </si>
+  <si>
+    <t>张17</t>
+  </si>
+  <si>
+    <t>张18</t>
+  </si>
+  <si>
+    <t>张19</t>
+  </si>
+  <si>
+    <t>张20</t>
+  </si>
+  <si>
+    <t>婚姻调查表</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>婚否</t>
+  </si>
+  <si>
+    <t>配偶</t>
+  </si>
+  <si>
+    <t>配偶性别</t>
+  </si>
+  <si>
     <t>张三</t>
-  </si>
-  <si>
-    <t>初中</t>
-  </si>
-  <si>
-    <t>王庄小学</t>
-  </si>
-  <si>
-    <t>王庄中学</t>
-  </si>
-  <si>
-    <t>王庄第一中学</t>
-  </si>
-  <si>
-    <t>王庄大学</t>
-  </si>
-  <si>
-    <t>李屯大学</t>
-  </si>
-  <si>
-    <t>李屯研究院</t>
-  </si>
-  <si>
-    <t>张四</t>
-  </si>
-  <si>
-    <t>张五</t>
-  </si>
-  <si>
-    <t>婚姻调查表</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>婚否</t>
-  </si>
-  <si>
-    <t>配偶</t>
-  </si>
-  <si>
-    <t>配偶性别</t>
   </si>
   <si>
     <t>男</t>
@@ -112,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +179,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,10 +221,64 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,91 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,25 +339,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,151 +381,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +568,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,22 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +612,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -615,142 +657,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +816,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1104,7 +1143,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1171,28 +1210,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <v>125</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1200,31 +1239,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>126</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1232,31 +1271,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
-        <v>127</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="3">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1264,31 +1303,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>128</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="3">
+        <v>103</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1296,31 +1335,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
-        <v>129</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="3">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1328,31 +1367,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
-        <v>130</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="3">
+        <v>105</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1360,31 +1399,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
-        <v>131</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="3">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1392,31 +1431,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
-        <v>132</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="3">
+        <v>107</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1424,31 +1463,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>133</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="3">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1456,31 +1495,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
-        <v>134</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="3">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1488,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
-        <v>135</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="3">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1520,31 +1559,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
-        <v>136</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="3">
+        <v>111</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1552,31 +1591,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>137</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="3">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1584,31 +1623,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
-        <v>138</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="3">
+        <v>113</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1616,31 +1655,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3">
-        <v>139</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>114</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1648,31 +1687,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3">
-        <v>140</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="3">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1680,63 +1719,63 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3">
-        <v>141</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="3">
+        <v>116</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4">
-        <v>142</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3">
+        <v>217</v>
+      </c>
+      <c r="D20" s="3">
+        <v>117</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1752,16 +1791,16 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1785,7 +1824,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1801,16 +1840,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1818,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
